--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s1_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2380.186560533655</v>
+        <v>848.9921397190411</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.008000135421753</v>
+        <v>0.7899999618530273</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.30000008383183</v>
+        <v>34.30000008383182</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.07584328730762</v>
+        <v>16.25698174288911</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.212403737203888</v>
+        <v>14.94912137809826</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2111.739999999927</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.01</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -664,9 +664,20 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -766,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -777,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -940,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.6856909842626</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -948,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.44641299045076</v>
+        <v>19.31116002552195</v>
       </c>
     </row>
     <row r="5">
@@ -956,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.84460151590078</v>
+        <v>17.15891053163814</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.28226196994635</v>
+        <v>22.48909622152289</v>
       </c>
     </row>
     <row r="7">
@@ -972,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24.79316574842337</v>
+        <v>25.04208713267366</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +1013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,10 +1045,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1048,10 +1059,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1062,10 +1073,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1076,10 +1087,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1090,10 +1101,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1104,10 +1115,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1118,10 +1129,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1132,10 +1143,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1146,10 +1157,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1160,10 +1171,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1174,10 +1185,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1188,10 +1199,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1202,10 +1213,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -1216,99 +1227,15 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6099999999931</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1422,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.594999999996</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1433,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2399999999918</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1444,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.439999999992</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1455,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6549999999972</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>241.1049999999921</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
@@ -1477,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>235.2299999999947</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -1488,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>224.6099999999897</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -1499,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>233.4949999999905</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -1510,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>237.2099999999957</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -1521,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>196.6649999999925</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -1532,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>196.6949999999955</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19">
@@ -1543,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>183.23999999999</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -1554,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>187.6799999999911</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
@@ -1565,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>191.3749999999954</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -1576,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000006</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -1587,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000001</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1598,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.465000000001</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1609,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -1620,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000006</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -1631,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000004</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1642,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000036</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1653,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000037</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -1664,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000036</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -1675,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000004</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
@@ -1686,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>177.6150000000006</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1697,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>171.8100000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1708,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.465000000001</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
@@ -1719,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>177.2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -1730,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.1300000000006</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
@@ -1741,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>241.1049999999923</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38">
@@ -1752,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>235.2299999999941</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
@@ -1763,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>224.6099999999897</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40">
@@ -1774,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>233.4949999999899</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41">
@@ -1785,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>237.2099999999955</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>77.61500000000058</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1843,7 +1770,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>71.81000000000014</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1854,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>78.465000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1865,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>77.19999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1876,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>79.13000000000058</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1887,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>141.1049999999923</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -1898,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>135.2299999999941</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -1909,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>124.6099999999897</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1920,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>133.4949999999899</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1931,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>137.2099999999955</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1978,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1989,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2000,7 +1927,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2011,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2022,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2033,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2044,7 +1971,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2055,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2066,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2077,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2088,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2099,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2110,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2121,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2132,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2256,7 +2183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2283,7 +2210,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2294,7 +2221,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2305,7 +2232,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2316,7 +2243,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2327,7 +2254,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2338,7 +2265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2349,7 +2276,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2360,7 +2287,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2371,7 +2298,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2382,7 +2309,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2393,7 +2320,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2404,7 +2331,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2415,7 +2342,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2426,7 +2353,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2437,89 +2364,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>5</v>
-      </c>
-      <c r="C23" t="n">
         <v>1</v>
       </c>
     </row>
